--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1092B-9FD0-4E56-92F5-22B1983995E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E7833-A1C3-42F7-9A8A-4B3933FDC001}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Holder" sheetId="2" r:id="rId1"/>
+    <sheet name="Letter" sheetId="3" r:id="rId2"/>
+    <sheet name="RyanMail" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="159">
   <si>
     <t>P</t>
   </si>
@@ -341,6 +343,168 @@
   </si>
   <si>
     <t>SI 8</t>
+  </si>
+  <si>
+    <t>LetterCategory</t>
+  </si>
+  <si>
+    <t>LetterTemplate</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>State C</t>
+  </si>
+  <si>
+    <t>State E</t>
+  </si>
+  <si>
+    <t>Create Letters for Additional Owners</t>
+  </si>
+  <si>
+    <t>Create One Letter per Owner</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>LetterType</t>
+  </si>
+  <si>
+    <t>DDL B 1</t>
+  </si>
+  <si>
+    <t>DDL B 2</t>
+  </si>
+  <si>
+    <t>DDL B 3</t>
+  </si>
+  <si>
+    <t>DDL B 4</t>
+  </si>
+  <si>
+    <t>DDL A 1</t>
+  </si>
+  <si>
+    <t>DDL A 2</t>
+  </si>
+  <si>
+    <t>DDL A 3</t>
+  </si>
+  <si>
+    <t>DDL A 4</t>
+  </si>
+  <si>
+    <t>Search 1</t>
+  </si>
+  <si>
+    <t>Search 2</t>
+  </si>
+  <si>
+    <t>Search 3</t>
+  </si>
+  <si>
+    <t>Search 4</t>
+  </si>
+  <si>
+    <t>State C 1</t>
+  </si>
+  <si>
+    <t>State C 2</t>
+  </si>
+  <si>
+    <t>State C 3</t>
+  </si>
+  <si>
+    <t>State C 4</t>
+  </si>
+  <si>
+    <t>State E 1</t>
+  </si>
+  <si>
+    <t>State E 2</t>
+  </si>
+  <si>
+    <t>State E 3</t>
+  </si>
+  <si>
+    <t>State E 4</t>
+  </si>
+  <si>
+    <t>Brokerage</t>
+  </si>
+  <si>
+    <t>Corporation</t>
+  </si>
+  <si>
+    <t>Financial Organization</t>
+  </si>
+  <si>
+    <t>Life Insurance Company</t>
+  </si>
+  <si>
+    <t>Mutual Fund Company</t>
+  </si>
+  <si>
+    <t>Non Life Insurance Company</t>
+  </si>
+  <si>
+    <t>Petroleum Company</t>
+  </si>
+  <si>
+    <t>Utility Company</t>
+  </si>
+  <si>
+    <t>HolderType</t>
+  </si>
+  <si>
+    <t>RyanMail DDL B 1</t>
+  </si>
+  <si>
+    <t>RyanMail DDL B 2</t>
+  </si>
+  <si>
+    <t>RyanMail DDL B 3</t>
+  </si>
+  <si>
+    <t>RyanMail DDL B 4</t>
+  </si>
+  <si>
+    <t>RyanMail DDL A 1</t>
+  </si>
+  <si>
+    <t>RyanMail DDL A 2</t>
+  </si>
+  <si>
+    <t>RyanMail DDL A 3</t>
+  </si>
+  <si>
+    <t>RyanMail DDL A 4</t>
+  </si>
+  <si>
+    <t>RyanMail Search 1</t>
+  </si>
+  <si>
+    <t>RyanMail Search 2</t>
+  </si>
+  <si>
+    <t>RyanMail Search 3</t>
+  </si>
+  <si>
+    <t>RyanMail Search 4</t>
   </si>
 </sst>
 </file>
@@ -680,519 +844,1172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9079FDF-6A1D-42FD-85BB-735B4D6A4FD6}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="19.36328125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="14.36328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.453125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.90625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="19.36328125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.453125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.7265625" style="1"/>
+    <col min="16" max="16" width="11.08984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.90625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>111111111</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>100000001</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>222222222</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>100000002</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>333333333</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>100000003</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>444444444</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>100000004</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>555555555</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>100000005</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>666666666</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>100000006</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>777777777</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>100000007</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>888888888</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>100000008</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1" xr:uid="{046721DF-E576-4DC4-898A-8EE946E71AB1}"/>
-    <hyperlink ref="K7" r:id="rId2" xr:uid="{C8DE9008-3EF7-45AB-B72C-72E11D5BEEFA}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{20BAB34A-05B9-43AC-BE88-C799D6917067}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{035C1817-0F3D-49DB-92ED-6A2837556C95}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{B4922EF3-DB92-4BEB-A789-5A80927D7818}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{0DCA74C1-90D0-4CA2-8653-54AF676D9A9F}"/>
+    <hyperlink ref="L8" r:id="rId1" xr:uid="{046721DF-E576-4DC4-898A-8EE946E71AB1}"/>
+    <hyperlink ref="L7" r:id="rId2" xr:uid="{C8DE9008-3EF7-45AB-B72C-72E11D5BEEFA}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{20BAB34A-05B9-43AC-BE88-C799D6917067}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{035C1817-0F3D-49DB-92ED-6A2837556C95}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{B4922EF3-DB92-4BEB-A789-5A80927D7818}"/>
+    <hyperlink ref="L3" r:id="rId6" xr:uid="{0DCA74C1-90D0-4CA2-8653-54AF676D9A9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30D2D-1E64-4A9A-B10C-FC1699B38A18}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ECE86-607C-4689-A9DC-74083289C2E1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E7833-A1C3-42F7-9A8A-4B3933FDC001}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5BF28-3ABE-40D7-8CF3-06E1727D0DDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
     <sheet name="Letter" sheetId="3" r:id="rId2"/>
     <sheet name="RyanMail" sheetId="4" r:id="rId3"/>
+    <sheet name="Report" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="206">
   <si>
     <t>P</t>
   </si>
@@ -505,6 +506,147 @@
   </si>
   <si>
     <t>RyanMail Search 4</t>
+  </si>
+  <si>
+    <t>ReportOption</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ECE86-607C-4689-A9DC-74083289C2E1}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2012,4 +2154,465 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A153BF37-F317-4CB7-B885-8B1692BAAF90}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5BF28-3ABE-40D7-8CF3-06E1727D0DDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A9334-3328-43BD-82EC-5291A935035B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
     <sheet name="Letter" sheetId="3" r:id="rId2"/>
     <sheet name="RyanMail" sheetId="4" r:id="rId3"/>
     <sheet name="Report" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="219">
   <si>
     <t>P</t>
   </si>
@@ -622,9 +624,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
     <t>TX</t>
   </si>
   <si>
@@ -647,6 +646,48 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>ReportCategory</t>
+  </si>
+  <si>
+    <t>HolderList</t>
+  </si>
+  <si>
+    <t>ReportGroup</t>
+  </si>
+  <si>
+    <t>ReportDetail</t>
+  </si>
+  <si>
+    <t>ReportType</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Separate</t>
+  </si>
+  <si>
+    <t>Finalize</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>HolderList2</t>
+  </si>
+  <si>
+    <t>States2</t>
   </si>
 </sst>
 </file>
@@ -697,13 +738,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1536,7 +1580,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:E21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A153BF37-F317-4CB7-B885-8B1692BAAF90}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2533,7 +2577,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3</v>
@@ -2541,7 +2585,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
@@ -2557,7 +2601,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3</v>
@@ -2565,7 +2609,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>3</v>
@@ -2573,7 +2617,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
@@ -2581,7 +2625,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3</v>
@@ -2589,7 +2633,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>3</v>
@@ -2597,7 +2641,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>3</v>
@@ -2605,7 +2649,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3</v>
@@ -2615,4 +2659,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6914831-CE84-448A-BA5C-2EE1386E189D}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,17 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A9334-3328-43BD-82EC-5291A935035B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A35D1AF-2EBE-4761-BBDB-9706A2929D59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
     <sheet name="Letter" sheetId="3" r:id="rId2"/>
     <sheet name="RyanMail" sheetId="4" r:id="rId3"/>
-    <sheet name="Report" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="StateReport" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="219">
   <si>
     <t>P</t>
   </si>
@@ -276,30 +275,6 @@
     <t>StatIndName</t>
   </si>
   <si>
-    <t>Test Entity 1</t>
-  </si>
-  <si>
-    <t>Test Entity 2</t>
-  </si>
-  <si>
-    <t>Test Entity 3</t>
-  </si>
-  <si>
-    <t>Test Entity 4</t>
-  </si>
-  <si>
-    <t>Test Entity 5</t>
-  </si>
-  <si>
-    <t>Test Entity 6</t>
-  </si>
-  <si>
-    <t>Test Entity 7</t>
-  </si>
-  <si>
-    <t>Test Entity 8</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -687,7 +662,31 @@
     <t>HolderList2</t>
   </si>
   <si>
-    <t>States2</t>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Test Holder Brokerage</t>
+  </si>
+  <si>
+    <t>Test Holder Corporation</t>
+  </si>
+  <si>
+    <t>Test Holder Financial Organization</t>
+  </si>
+  <si>
+    <t>Test Holder Life Insurance Company</t>
+  </si>
+  <si>
+    <t>Test Holder Mutual Fund Company</t>
+  </si>
+  <si>
+    <t>Test Holder Non Life Insurance Company</t>
+  </si>
+  <si>
+    <t>Test Holder Petroleum Company</t>
+  </si>
+  <si>
+    <t>Test Holder Utility Company</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1032,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1058,7 +1057,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
@@ -1114,13 +1113,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1159,24 +1158,24 @@
         <v>64</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1215,24 +1214,24 @@
         <v>64</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1271,24 +1270,24 @@
         <v>64</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1327,24 +1326,24 @@
         <v>64</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -1383,24 +1382,24 @@
         <v>64</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1439,24 +1438,24 @@
         <v>64</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
@@ -1495,24 +1494,24 @@
         <v>64</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1551,13 +1550,13 @@
         <v>64</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30D2D-1E64-4A9A-B10C-FC1699B38A18}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1594,27 +1593,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1628,16 +1627,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1645,10 +1644,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1657,35 +1656,35 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1696,16 +1695,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -1713,44 +1712,44 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1764,16 +1763,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1781,10 +1780,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1793,35 +1792,35 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1832,16 +1831,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -1849,47 +1848,47 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1900,16 +1899,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -1917,36 +1916,36 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1975,27 +1974,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2009,16 +2008,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -2026,10 +2025,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2038,35 +2037,35 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -2077,16 +2076,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -2094,44 +2093,44 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2145,16 +2144,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2162,10 +2161,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2174,24 +2173,24 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2201,472 +2200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A153BF37-F317-4CB7-B885-8B1692BAAF90}">
-  <dimension ref="A1:B55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2676,59 +2214,76 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="19.90625" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" t="s">
-        <v>162</v>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2736,92 +2291,454 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6914831-CE84-448A-BA5C-2EE1386E189D}">
-  <dimension ref="A1:H3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254E8DD8-5C82-4299-A01B-F21F73CE6864}">
+  <dimension ref="F7:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="7" spans="6:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="1" t="s">
         <v>174</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A35D1AF-2EBE-4761-BBDB-9706A2929D59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4DEA1-0D32-4E8D-A449-E693C4C2B2D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="RyanMail" sheetId="4" r:id="rId3"/>
     <sheet name="StateReport" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="FileTypes" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="262">
   <si>
     <t>P</t>
   </si>
@@ -687,6 +688,135 @@
   </si>
   <si>
     <t>Test Holder Utility Company</t>
+  </si>
+  <si>
+    <t>MimeType</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>.bmp</t>
+  </si>
+  <si>
+    <t>image/bmp</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>text/csv</t>
+  </si>
+  <si>
+    <t>.doc</t>
+  </si>
+  <si>
+    <t>application/msword</t>
+  </si>
+  <si>
+    <t>.docx</t>
+  </si>
+  <si>
+    <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
+  </si>
+  <si>
+    <t>.gif</t>
+  </si>
+  <si>
+    <t>image/gif</t>
+  </si>
+  <si>
+    <t>.html</t>
+  </si>
+  <si>
+    <t>text/html</t>
+  </si>
+  <si>
+    <t>.jpeg</t>
+  </si>
+  <si>
+    <t>image/jpeg</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>image/png</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>application/pdf</t>
+  </si>
+  <si>
+    <t>.ppt</t>
+  </si>
+  <si>
+    <t>application/vnd.ms-powerpoint</t>
+  </si>
+  <si>
+    <t>.pptx</t>
+  </si>
+  <si>
+    <t>application/vnd.openxmlformats-officedocument.presentationml.presentation</t>
+  </si>
+  <si>
+    <t>.rar</t>
+  </si>
+  <si>
+    <t>application/vnd.rar</t>
+  </si>
+  <si>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>application/vnd.ms-excel</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t>application/vnd.openxmlformats-officedocument.spreadsheetml.sheet</t>
+  </si>
+  <si>
+    <t>.xml</t>
+  </si>
+  <si>
+    <t>text/xml</t>
+  </si>
+  <si>
+    <t>application/xml</t>
+  </si>
+  <si>
+    <t>.zip</t>
+  </si>
+  <si>
+    <t>application/zip</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>.7z</t>
+  </si>
+  <si>
+    <t>application/x-7z-compressed</t>
+  </si>
+  <si>
+    <t>.tif</t>
+  </si>
+  <si>
+    <t>.tiff</t>
+  </si>
+  <si>
+    <t>image/tiff</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30D2D-1E64-4A9A-B10C-FC1699B38A18}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2744,4 +2874,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7B0934-9557-4E65-A056-F05A2D64E322}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="86.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4DEA1-0D32-4E8D-A449-E693C4C2B2D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18201B7-851D-4C67-AF23-41BC472C6645}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="StateReport" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
     <sheet name="FileTypes" sheetId="9" r:id="rId6"/>
+    <sheet name="FileMapping" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="291">
   <si>
     <t>P</t>
   </si>
@@ -817,6 +818,93 @@
   </si>
   <si>
     <t>image/tiff</t>
+  </si>
+  <si>
+    <t>ExternalField</t>
+  </si>
+  <si>
+    <t>ColumnIndex</t>
+  </si>
+  <si>
+    <t>TrackerproField</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>FieldFormat</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Check Number</t>
+  </si>
+  <si>
+    <t>Check Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Property ID Code</t>
+  </si>
+  <si>
+    <t>Owner ID Type</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>Property Account Number</t>
+  </si>
+  <si>
+    <t>Property ID Number</t>
+  </si>
+  <si>
+    <t>Property Last Transaction Date</t>
+  </si>
+  <si>
+    <t>Property Initial Amount</t>
+  </si>
+  <si>
+    <t>Owner Address 1</t>
+  </si>
+  <si>
+    <t>Owner ID Number</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>MM/dd/yyyy</t>
+  </si>
+  <si>
+    <t>Upper Case</t>
+  </si>
+  <si>
+    <t>Title Case</t>
+  </si>
+  <si>
+    <t>Lower Case</t>
+  </si>
+  <si>
+    <t>$1,234.00</t>
   </si>
 </sst>
 </file>
@@ -867,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -878,6 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2880,7 +2969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7B0934-9557-4E65-A056-F05A2D64E322}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3078,4 +3167,265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28CF56D-6A76-4E76-A009-D120046EC507}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18201B7-851D-4C67-AF23-41BC472C6645}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F65F4-B669-467B-B95A-3449427C68D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
     <sheet name="Letter" sheetId="3" r:id="rId2"/>
     <sheet name="RyanMail" sheetId="4" r:id="rId3"/>
-    <sheet name="StateReport" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
-    <sheet name="FileTypes" sheetId="9" r:id="rId6"/>
-    <sheet name="FileMapping" sheetId="10" r:id="rId7"/>
+    <sheet name="FileTypes" sheetId="9" r:id="rId4"/>
+    <sheet name="FileMappingExcel" sheetId="10" r:id="rId5"/>
+    <sheet name="StateReport" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="FileMappingDelimited" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="309">
   <si>
     <t>P</t>
   </si>
@@ -631,9 +632,6 @@
     <t>ReportCategory</t>
   </si>
   <si>
-    <t>HolderList</t>
-  </si>
-  <si>
     <t>ReportGroup</t>
   </si>
   <si>
@@ -655,15 +653,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>DDL</t>
-  </si>
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
-    <t>HolderList2</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -905,13 +894,79 @@
   </si>
   <si>
     <t>$1,234.00</t>
+  </si>
+  <si>
+    <t>DatePaid</t>
+  </si>
+  <si>
+    <t>01012020</t>
+  </si>
+  <si>
+    <t>Holders</t>
+  </si>
+  <si>
+    <t>Card,DDL</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Add1</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Prop ID Code</t>
+  </si>
+  <si>
+    <t>Prop ID Number</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>Init Amount</t>
+  </si>
+  <si>
+    <t>Pro Account Number</t>
+  </si>
+  <si>
+    <t>Maturity Date</t>
+  </si>
+  <si>
+    <t>Owner Last Name Or Business Name</t>
+  </si>
+  <si>
+    <t>Owner First Name</t>
+  </si>
+  <si>
+    <t>Owner City</t>
+  </si>
+  <si>
+    <t>Owner State</t>
+  </si>
+  <si>
+    <t>Owner Zip</t>
+  </si>
+  <si>
+    <t>Property Maturity Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +987,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -955,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -963,10 +1024,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1335,7 +1399,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
@@ -1386,12 +1450,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
@@ -1447,7 +1511,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -1503,7 +1567,7 @@
         <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
@@ -1559,7 +1623,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -1615,7 +1679,7 @@
         <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
@@ -1671,7 +1735,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>60</v>
@@ -1727,7 +1791,7 @@
         <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -2419,553 +2483,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254E8DD8-5C82-4299-A01B-F21F73CE6864}">
-  <dimension ref="F7:G61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="7" spans="6:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="F7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F35" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F36" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F43" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F44" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F46" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F48" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F52" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F53" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F55" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F56" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F57" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F59" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7B0934-9557-4E65-A056-F05A2D64E322}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -2981,186 +2498,186 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3169,12 +2686,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28CF56D-6A76-4E76-A009-D120046EC507}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3188,33 +2705,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
         <v>262</v>
-      </c>
-      <c r="B1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E2">
         <v>1234</v>
@@ -3222,16 +2739,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E3">
         <v>1234</v>
@@ -3239,87 +2756,87 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
         <v>281</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>285</v>
-      </c>
-      <c r="E8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3333,10 +2850,10 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3350,10 +2867,10 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3367,7 +2884,7 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E11">
         <v>1234</v>
@@ -3375,50 +2892,50 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E14">
         <v>1234</v>
@@ -3428,4 +2945,811 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254E8DD8-5C82-4299-A01B-F21F73CE6864}">
+  <dimension ref="F7:N61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="7" spans="6:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f xml:space="preserve"> "" &amp; CHAR(34) &amp; "['DDL','Card']" &amp; CHAR(34) &amp; ""</f>
+        <v>"['DDL','Card']"</v>
+      </c>
+    </row>
+    <row r="11" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8CB25C-B14C-4A4F-8EB0-2D62BF327661}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F65F4-B669-467B-B95A-3449427C68D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E997B-37C2-4E91-8A39-2072B2262B84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="309">
   <si>
     <t>P</t>
   </si>
@@ -905,9 +905,6 @@
     <t>Holders</t>
   </si>
   <si>
-    <t>Card,DDL</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -960,6 +957,9 @@
   </si>
   <si>
     <t>Property Maturity Date</t>
+  </si>
+  <si>
+    <t>"DDL","Card"</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1025,9 +1025,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2691,7 +2688,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2935,10 +2932,10 @@
         <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14">
-        <v>1234</v>
+        <v>281</v>
+      </c>
+      <c r="E14" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2949,19 +2946,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="1" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
     <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2970,19 +2966,19 @@
         <v>198</v>
       </c>
       <c r="B1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>287</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>289</v>
       </c>
       <c r="G1" t="s">
         <v>152</v>
@@ -2993,24 +2989,20 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>205</v>
       </c>
-      <c r="F2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3023,7 +3015,7 @@
   <dimension ref="F7:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3059,7 +3051,7 @@
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="5" t="str">
+      <c r="N10" s="4" t="str">
         <f xml:space="preserve"> "" &amp; CHAR(34) &amp; "['DDL','Card']" &amp; CHAR(34) &amp; ""</f>
         <v>"['DDL','Card']"</v>
       </c>
@@ -3102,6 +3094,10 @@
       </c>
       <c r="G15" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="N15" t="str">
+        <f xml:space="preserve"> """DDL"""&amp;CHAR(92)&amp;CHAR(110)&amp;"""Card"""</f>
+        <v>"DDL"\n"Card"</v>
       </c>
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.35">
@@ -3482,7 +3478,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3513,7 +3509,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3530,7 +3526,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3539,21 +3535,21 @@
         <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3">
-        <v>1234</v>
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
         <v>281</v>
@@ -3564,13 +3560,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
         <v>281</v>
@@ -3581,7 +3577,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3604,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
         <v>281</v>
@@ -3615,13 +3611,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
         <v>281</v>
@@ -3638,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
         <v>279</v>
@@ -3649,7 +3645,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3666,7 +3662,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3683,7 +3679,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3700,7 +3696,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3717,7 +3713,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3734,13 +3730,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D15" t="s">
         <v>280</v>

--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,19 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E997B-37C2-4E91-8A39-2072B2262B84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853B1F8C-878A-4827-A9F1-3110BCCD4316}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
     <sheet name="Letter" sheetId="3" r:id="rId2"/>
-    <sheet name="RyanMail" sheetId="4" r:id="rId3"/>
-    <sheet name="FileTypes" sheetId="9" r:id="rId4"/>
-    <sheet name="FileMappingExcel" sheetId="10" r:id="rId5"/>
-    <sheet name="StateReport" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
-    <sheet name="FileMappingDelimited" sheetId="11" r:id="rId8"/>
+    <sheet name="LetterBackup" sheetId="14" r:id="rId3"/>
+    <sheet name="RyanMail" sheetId="4" r:id="rId4"/>
+    <sheet name="RyanMailBackup" sheetId="15" r:id="rId5"/>
+    <sheet name="FileTypes" sheetId="9" r:id="rId6"/>
+    <sheet name="FileMappingExcel" sheetId="10" r:id="rId7"/>
+    <sheet name="FileMappingExcel2" sheetId="13" r:id="rId8"/>
+    <sheet name="mapexcel" sheetId="12" r:id="rId9"/>
+    <sheet name="StateReport" sheetId="6" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId11"/>
+    <sheet name="FileMappingDelimited" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="317">
   <si>
     <t>P</t>
   </si>
@@ -960,12 +964,39 @@
   </si>
   <si>
     <t>"DDL","Card"</t>
+  </si>
+  <si>
+    <t>OIT</t>
+  </si>
+  <si>
+    <t>OIN</t>
+  </si>
+  <si>
+    <t>Prop ID #</t>
+  </si>
+  <si>
+    <t>Init Amt</t>
+  </si>
+  <si>
+    <t>Owner Last Name</t>
+  </si>
+  <si>
+    <t>Select a Field Format...</t>
+  </si>
+  <si>
+    <t>ATI</t>
+  </si>
+  <si>
+    <t>Property ATI Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1016,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1028,6 +1059,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1854,1097 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30D2D-1E64-4A9A-B10C-FC1699B38A18}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="55.54296875" customWidth="1"/>
-    <col min="5" max="5" width="35.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ECE86-607C-4689-A9DC-74083289C2E1}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="55.54296875" customWidth="1"/>
-    <col min="5" max="5" width="35.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7B0934-9557-4E65-A056-F05A2D64E322}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="86.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28CF56D-6A76-4E76-A009-D120046EC507}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E11">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3010,7 +1952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254E8DD8-5C82-4299-A01B-F21F73CE6864}">
   <dimension ref="F7:N61"/>
   <sheetViews>
@@ -3473,12 +2415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8CB25C-B14C-4A4F-8EB0-2D62BF327661}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3748,4 +2690,2151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30D2D-1E64-4A9A-B10C-FC1699B38A18}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613CDB0B-D714-4C98-BC1F-B3EE62784D17}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ECE86-607C-4689-A9DC-74083289C2E1}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4668550-F092-4C79-847A-0A1337316D54}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7B0934-9557-4E65-A056-F05A2D64E322}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="86.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28CF56D-6A76-4E76-A009-D120046EC507}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED011C-B205-4A77-90F5-58EE9EF9C682}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3CF2D-9C7B-48CF-B6D6-31AF1CAB42DE}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853B1F8C-878A-4827-A9F1-3110BCCD4316}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868392BA-44B6-4F5A-8F2A-817EAC500B51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="317">
   <si>
     <t>P</t>
   </si>
@@ -2694,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30D2D-1E64-4A9A-B10C-FC1699B38A18}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -2740,12 +2740,12 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -2757,46 +2757,46 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -2808,12 +2808,12 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -2825,46 +2825,46 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
@@ -2876,12 +2876,12 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>101</v>
@@ -2893,46 +2893,46 @@
         <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>102</v>
@@ -2944,12 +2944,12 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>102</v>
@@ -2961,46 +2961,46 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
@@ -3012,12 +3012,12 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
         <v>102</v>
@@ -3029,6 +3029,40 @@
         <v>105</v>
       </c>
       <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3422,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ECE86-607C-4689-A9DC-74083289C2E1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868392BA-44B6-4F5A-8F2A-817EAC500B51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAADE543-B4EF-4522-9042-EF864CA355FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
     <sheet name="Letter" sheetId="3" r:id="rId2"/>
     <sheet name="LetterBackup" sheetId="14" r:id="rId3"/>
-    <sheet name="RyanMail" sheetId="4" r:id="rId4"/>
-    <sheet name="RyanMailBackup" sheetId="15" r:id="rId5"/>
-    <sheet name="FileTypes" sheetId="9" r:id="rId6"/>
-    <sheet name="FileMappingExcel" sheetId="10" r:id="rId7"/>
-    <sheet name="FileMappingExcel2" sheetId="13" r:id="rId8"/>
-    <sheet name="mapexcel" sheetId="12" r:id="rId9"/>
-    <sheet name="StateReport" sheetId="6" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId11"/>
-    <sheet name="FileMappingDelimited" sheetId="11" r:id="rId12"/>
+    <sheet name="Test1" sheetId="31" r:id="rId4"/>
+    <sheet name="Test" sheetId="33" r:id="rId5"/>
+    <sheet name="Test2" sheetId="32" r:id="rId6"/>
+    <sheet name="RyanMail" sheetId="4" r:id="rId7"/>
+    <sheet name="RyanMailBackup" sheetId="15" r:id="rId8"/>
+    <sheet name="FileTypes" sheetId="9" r:id="rId9"/>
+    <sheet name="FileMappingExcel" sheetId="10" r:id="rId10"/>
+    <sheet name="FileMappingExcel2" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="34" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="35" r:id="rId13"/>
+    <sheet name="mapexcel" sheetId="12" r:id="rId14"/>
+    <sheet name="StateReport" sheetId="6" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId16"/>
+    <sheet name="FileMappingDelimited" sheetId="11" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="375">
   <si>
     <t>P</t>
   </si>
@@ -495,9 +502,6 @@
     <t>ReportOption</t>
   </si>
   <si>
-    <t>States</t>
-  </si>
-  <si>
     <t>AK</t>
   </si>
   <si>
@@ -903,12 +907,6 @@
     <t>DatePaid</t>
   </si>
   <si>
-    <t>01012020</t>
-  </si>
-  <si>
-    <t>Holders</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -963,9 +961,6 @@
     <t>Property Maturity Date</t>
   </si>
   <si>
-    <t>"DDL","Card"</t>
-  </si>
-  <si>
     <t>OIT</t>
   </si>
   <si>
@@ -988,16 +983,203 @@
   </si>
   <si>
     <t>Property ATI Code</t>
+  </si>
+  <si>
+    <t>FieldB</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Prelim</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>10102020</t>
+  </si>
+  <si>
+    <t>By Holder/State</t>
+  </si>
+  <si>
+    <t>By Holder</t>
+  </si>
+  <si>
+    <t>By State</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Amount Due</t>
+  </si>
+  <si>
+    <t>Shares Due</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Additional Shares</t>
+  </si>
+  <si>
+    <t>Deleted Shares</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Initial Amount</t>
+  </si>
+  <si>
+    <t>Addition Amount</t>
+  </si>
+  <si>
+    <t>Deduction Amount</t>
+  </si>
+  <si>
+    <t>Deletion Amount</t>
+  </si>
+  <si>
+    <t>Amount Paid</t>
+  </si>
+  <si>
+    <t>Par Value</t>
+  </si>
+  <si>
+    <t>Unpaid Rent</t>
+  </si>
+  <si>
+    <t>Drilling Fees</t>
+  </si>
+  <si>
+    <t>Percent Interest</t>
+  </si>
+  <si>
+    <t>Market Value</t>
+  </si>
+  <si>
+    <t>Deduction Code</t>
+  </si>
+  <si>
+    <t>Addition Code</t>
+  </si>
+  <si>
+    <t>Deletion Code</t>
+  </si>
+  <si>
+    <t>Property Amount Due</t>
+  </si>
+  <si>
+    <t>Property Securities Shares Due</t>
+  </si>
+  <si>
+    <t>Property Securities Shares</t>
+  </si>
+  <si>
+    <t>Property Securities Additional Shares</t>
+  </si>
+  <si>
+    <t>Property Securities Deleted Shares</t>
+  </si>
+  <si>
+    <t>Property Interest Rate</t>
+  </si>
+  <si>
+    <t>Property Addition Amount</t>
+  </si>
+  <si>
+    <t>Property Deduction Amount</t>
+  </si>
+  <si>
+    <t>Property Deletion Amount</t>
+  </si>
+  <si>
+    <t>Property Amount Paid</t>
+  </si>
+  <si>
+    <t>Property Securities Par Value</t>
+  </si>
+  <si>
+    <t>Property SD Unpaid Rent</t>
+  </si>
+  <si>
+    <t>Property SD Drilling Fees</t>
+  </si>
+  <si>
+    <t>Property MI Percent Interest</t>
+  </si>
+  <si>
+    <t>Property Securities Market Value</t>
+  </si>
+  <si>
+    <t>Property Deduction Code</t>
+  </si>
+  <si>
+    <t>Property Addition Code</t>
+  </si>
+  <si>
+    <t>Property Deletion Code</t>
+  </si>
+  <si>
+    <t>LAST NAME OR BUSINESS NAME</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS 1</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>PROPERTY ID NUMBER</t>
+  </si>
+  <si>
+    <t>PROPERTY ID CODE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>OWNER SEQUENCE NUMBER</t>
+  </si>
+  <si>
+    <t>Property Owner Sequence Number</t>
+  </si>
+  <si>
+    <t>1234.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1207,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1034,7 +1222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1042,12 +1230,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1060,6 +1257,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1344,7 +1549,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,7 +1633,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
@@ -1484,7 +1689,7 @@
         <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
@@ -1540,7 +1745,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -1596,7 +1801,7 @@
         <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
@@ -1652,7 +1857,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -1708,7 +1913,7 @@
         <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
@@ -1764,7 +1969,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>60</v>
@@ -1820,7 +2025,7 @@
         <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -1887,63 +2092,241 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28CF56D-6A76-4E76-A009-D120046EC507}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>289</v>
       </c>
-      <c r="C1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>308</v>
       </c>
-      <c r="C2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" t="s">
-        <v>205</v>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -1953,6 +2336,1862 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED011C-B205-4A77-90F5-58EE9EF9C682}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106DEF2-D09C-4259-9F05-0A20172565FA}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E68F25-0653-453E-BCF4-8AA68FC79452}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3CF2D-9C7B-48CF-B6D6-31AF1CAB42DE}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254E8DD8-5C82-4299-A01B-F21F73CE6864}">
   <dimension ref="F7:N61"/>
   <sheetViews>
@@ -1964,7 +4203,7 @@
   <sheetData>
     <row r="7" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="F7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>151</v>
@@ -1972,7 +4211,7 @@
     </row>
     <row r="8" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>3</v>
@@ -1980,7 +4219,7 @@
     </row>
     <row r="9" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>3</v>
@@ -1988,7 +4227,7 @@
     </row>
     <row r="10" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
@@ -2000,7 +4239,7 @@
     </row>
     <row r="11" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>3</v>
@@ -2016,7 +4255,7 @@
     </row>
     <row r="13" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>3</v>
@@ -2032,7 +4271,7 @@
     </row>
     <row r="15" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>3</v>
@@ -2044,7 +4283,7 @@
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
@@ -2060,7 +4299,7 @@
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
@@ -2068,7 +4307,7 @@
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
@@ -2076,7 +4315,7 @@
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>3</v>
@@ -2084,7 +4323,7 @@
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>3</v>
@@ -2092,7 +4331,7 @@
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>3</v>
@@ -2100,7 +4339,7 @@
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>3</v>
@@ -2108,7 +4347,7 @@
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>3</v>
@@ -2124,7 +4363,7 @@
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>3</v>
@@ -2148,7 +4387,7 @@
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>3</v>
@@ -2156,7 +4395,7 @@
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>3</v>
@@ -2164,7 +4403,7 @@
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>3</v>
@@ -2172,7 +4411,7 @@
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>3</v>
@@ -2180,7 +4419,7 @@
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F33" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>3</v>
@@ -2188,7 +4427,7 @@
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>3</v>
@@ -2196,7 +4435,7 @@
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>3</v>
@@ -2204,7 +4443,7 @@
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F36" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>3</v>
@@ -2212,7 +4451,7 @@
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F37" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>3</v>
@@ -2228,7 +4467,7 @@
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>3</v>
@@ -2236,7 +4475,7 @@
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>3</v>
@@ -2244,7 +4483,7 @@
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>3</v>
@@ -2252,7 +4491,7 @@
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>3</v>
@@ -2260,7 +4499,7 @@
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>3</v>
@@ -2268,7 +4507,7 @@
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>3</v>
@@ -2276,7 +4515,7 @@
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>3</v>
@@ -2284,7 +4523,7 @@
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>3</v>
@@ -2300,7 +4539,7 @@
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>3</v>
@@ -2308,7 +4547,7 @@
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>3</v>
@@ -2316,7 +4555,7 @@
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>3</v>
@@ -2324,7 +4563,7 @@
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>3</v>
@@ -2332,7 +4571,7 @@
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>3</v>
@@ -2340,7 +4579,7 @@
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>3</v>
@@ -2356,7 +4595,7 @@
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F55" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>3</v>
@@ -2364,7 +4603,7 @@
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F56" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>3</v>
@@ -2372,7 +4611,7 @@
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F57" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>3</v>
@@ -2380,7 +4619,7 @@
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F58" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>3</v>
@@ -2388,7 +4627,7 @@
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>3</v>
@@ -2396,7 +4635,7 @@
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>3</v>
@@ -2404,7 +4643,7 @@
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F61" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>3</v>
@@ -2412,10 +4651,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8CB25C-B14C-4A4F-8EB0-2D62BF327661}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2434,104 +4674,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
         <v>258</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>260</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>261</v>
-      </c>
-      <c r="E1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2542,30 +4782,30 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2576,10 +4816,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9">
         <v>1234</v>
@@ -2587,33 +4827,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11">
         <v>1234</v>
@@ -2621,50 +4861,50 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14">
         <v>1234</v>
@@ -2672,23 +4912,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2696,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30D2D-1E64-4A9A-B10C-FC1699B38A18}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3078,7 +5319,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3449,15 +5690,118 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ECE86-607C-4689-A9DC-74083289C2E1}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD0BDCE-A3B6-4099-8E2D-27E7D461A25F}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA2B80B-ECFA-4F1B-B988-3FE5306AE3F6}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64202E8-E3BF-4BF7-86CD-D3E2242ED8F3}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ECE86-607C-4689-A9DC-74083289C2E1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3488,7 +5832,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -3500,12 +5844,12 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -3517,46 +5861,46 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -3568,12 +5912,12 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -3585,46 +5929,46 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
@@ -3636,12 +5980,12 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>101</v>
@@ -3653,16 +5997,51 @@
         <v>105</v>
       </c>
       <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4668550-F092-4C79-847A-0A1337316D54}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3902,10 +6281,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7B0934-9557-4E65-A056-F05A2D64E322}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -3921,954 +6301,190 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
         <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
         <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
         <v>223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
         <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
         <v>227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
         <v>229</v>
-      </c>
-      <c r="B8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
         <v>232</v>
-      </c>
-      <c r="B10" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
         <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
         <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" t="s">
         <v>238</v>
-      </c>
-      <c r="B13" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" t="s">
         <v>240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" t="s">
         <v>242</v>
-      </c>
-      <c r="B15" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" t="s">
         <v>244</v>
-      </c>
-      <c r="B16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
         <v>246</v>
-      </c>
-      <c r="B17" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
         <v>249</v>
-      </c>
-      <c r="B19" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" t="s">
         <v>251</v>
-      </c>
-      <c r="B20" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
         <v>253</v>
-      </c>
-      <c r="B21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
         <v>256</v>
-      </c>
-      <c r="B23" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28CF56D-6A76-4E76-A009-D120046EC507}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED011C-B205-4A77-90F5-58EE9EF9C682}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>315</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3CF2D-9C7B-48CF-B6D6-31AF1CAB42DE}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E11">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testdata/TrackerDataChrome.xlsx
+++ b/testdata/TrackerDataChrome.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAADE543-B4EF-4522-9042-EF864CA355FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D515D1AB-413C-4EE2-8596-32BCAFECE3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holder" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="378">
   <si>
     <t>P</t>
   </si>
@@ -859,9 +859,6 @@
     <t>Owner ID Type</t>
   </si>
   <si>
-    <t>SSN</t>
-  </si>
-  <si>
     <t>Property Account Number</t>
   </si>
   <si>
@@ -940,9 +937,6 @@
     <t>Pro Account Number</t>
   </si>
   <si>
-    <t>Maturity Date</t>
-  </si>
-  <si>
     <t>Owner Last Name Or Business Name</t>
   </si>
   <si>
@@ -958,9 +952,6 @@
     <t>Owner Zip</t>
   </si>
   <si>
-    <t>Property Maturity Date</t>
-  </si>
-  <si>
     <t>OIT</t>
   </si>
   <si>
@@ -1169,6 +1160,24 @@
   </si>
   <si>
     <t>1234.00</t>
+  </si>
+  <si>
+    <t>Property Securities Delivery Method</t>
+  </si>
+  <si>
+    <t>Relationship Code</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>NY:CO</t>
+  </si>
+  <si>
+    <t>CA:PA</t>
   </si>
 </sst>
 </file>
@@ -2127,7 +2136,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2136,78 +2145,78 @@
         <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2218,13 +2227,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2235,13 +2244,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2252,18 +2261,18 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2272,58 +2281,58 @@
         <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="5">
         <v>1234</v>
@@ -2371,7 +2380,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2380,78 +2389,78 @@
         <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2462,13 +2471,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2479,13 +2488,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2496,18 +2505,18 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2516,58 +2525,58 @@
         <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="5">
         <v>1234</v>
@@ -2575,19 +2584,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2641,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2641,66 +2650,66 @@
         <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2709,41 +2718,41 @@
         <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E8" s="9">
         <v>1234</v>
@@ -2751,16 +2760,16 @@
     </row>
     <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="9">
         <v>1234</v>
@@ -2768,16 +2777,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" s="9">
         <v>1234</v>
@@ -2785,16 +2794,16 @@
     </row>
     <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="9">
         <v>1234</v>
@@ -2802,16 +2811,16 @@
     </row>
     <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="9">
         <v>1234</v>
@@ -2819,16 +2828,16 @@
     </row>
     <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="9">
         <v>1234</v>
@@ -2836,16 +2845,16 @@
     </row>
     <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="9">
         <v>1234</v>
@@ -2853,16 +2862,16 @@
     </row>
     <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E15" s="9">
         <v>1234</v>
@@ -2870,16 +2879,16 @@
     </row>
     <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" s="9">
         <v>1234</v>
@@ -2887,16 +2896,16 @@
     </row>
     <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E17" s="9">
         <v>1234</v>
@@ -2904,16 +2913,16 @@
     </row>
     <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E18" s="9">
         <v>1234</v>
@@ -2921,16 +2930,16 @@
     </row>
     <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E19" s="9">
         <v>1234</v>
@@ -2938,16 +2947,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" s="9">
         <v>1234</v>
@@ -2955,16 +2964,16 @@
     </row>
     <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="9">
         <v>1234</v>
@@ -2972,16 +2981,16 @@
     </row>
     <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="9">
         <v>1234</v>
@@ -2989,16 +2998,16 @@
     </row>
     <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="9">
         <v>1234</v>
@@ -3006,16 +3015,16 @@
     </row>
     <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E24" s="9">
         <v>1234</v>
@@ -3023,16 +3032,16 @@
     </row>
     <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="9">
         <v>1234</v>
@@ -3040,16 +3049,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E26" s="9">
         <v>1234</v>
@@ -3065,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E68F25-0653-453E-BCF4-8AA68FC79452}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3097,109 +3106,109 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3208,58 +3217,58 @@
         <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11">
         <v>1234</v>
@@ -3273,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3CF2D-9C7B-48CF-B6D6-31AF1CAB42DE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3313,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2">
         <v>1234</v>
@@ -3330,10 +3339,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E3">
         <v>1234</v>
@@ -3347,13 +3356,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3364,13 +3373,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3384,10 +3393,10 @@
         <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3401,10 +3410,10 @@
         <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3415,13 +3424,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3435,10 +3444,10 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3452,10 +3461,10 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3469,7 +3478,7 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11">
         <v>1234</v>
@@ -3486,10 +3495,10 @@
         <v>269</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -3503,27 +3512,61 @@
         <v>270</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" t="s">
         <v>277</v>
       </c>
-      <c r="D14" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" t="s">
-        <v>283</v>
+      <c r="E16">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -3534,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B07ACD-967D-4D9A-8A25-9E631168A653}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3548,7 +3591,7 @@
     <col min="5" max="5" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>197</v>
       </c>
@@ -3559,13 +3602,16 @@
         <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3573,13 +3619,16 @@
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -3587,13 +3636,16 @@
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3604,13 +3656,16 @@
         <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -3621,179 +3676,182 @@
         <v>203</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
         <v>203</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>203</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
         <v>203</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -3801,13 +3859,13 @@
         <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
         <v>203</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E17" t="s">
         <v>204</v>
@@ -3818,13 +3876,13 @@
         <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -3832,10 +3890,10 @@
         <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
         <v>204</v>
@@ -3846,16 +3904,16 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
         <v>203</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -3863,13 +3921,13 @@
         <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
         <v>203</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
         <v>204</v>
@@ -3883,10 +3941,10 @@
         <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -3897,7 +3955,7 @@
         <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
         <v>204</v>
@@ -3914,10 +3972,10 @@
         <v>203</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E24" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -3931,7 +3989,7 @@
         <v>203</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E25" t="s">
         <v>204</v>
@@ -3942,13 +4000,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -3956,10 +4014,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E27" t="s">
         <v>204</v>
@@ -3970,16 +4028,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
         <v>203</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -3987,13 +4045,13 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
         <v>203</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
         <v>204</v>
@@ -4004,13 +4062,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -4018,10 +4076,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E31" t="s">
         <v>204</v>
@@ -4032,16 +4090,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C32" t="s">
         <v>203</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -4049,13 +4107,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C33" t="s">
         <v>203</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E33" t="s">
         <v>204</v>
@@ -4066,13 +4124,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -4080,10 +4138,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E35" t="s">
         <v>204</v>
@@ -4094,16 +4152,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s">
         <v>203</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -4111,13 +4169,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
         <v>203</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E37" t="s">
         <v>204</v>
@@ -4128,13 +4186,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -4142,10 +4200,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C39" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E39" t="s">
         <v>204</v>
@@ -4156,16 +4214,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C40" t="s">
         <v>203</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E40" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -4173,13 +4231,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C41" t="s">
         <v>203</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E41" t="s">
         <v>204</v>
@@ -4660,7 +4718,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4691,7 +4749,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4700,78 +4758,78 @@
         <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -4782,30 +4840,30 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4816,10 +4874,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9">
         <v>1234</v>
@@ -4827,7 +4885,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4836,24 +4894,24 @@
         <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11">
         <v>1234</v>
@@ -4861,50 +4919,50 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14">
         <v>1234</v>
@@ -4912,13 +4970,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
         <v>279</v>
@@ -5709,18 +5767,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5741,22 +5799,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5777,17 +5835,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
